--- a/resources/data/data.xlsx
+++ b/resources/data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA\Do-an-xay-dung-ung-dung-quan-ly-ban-ve-may-bay\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6B2017-B7FE-457C-B903-2CB6AF086241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6550F14A-1AD2-49A8-B280-89DF4EF55AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="1317">
   <si>
     <t>ma_Khuyen_Mai</t>
   </si>
@@ -3970,13 +3970,31 @@
     <t>Thay đổi lịch trình</t>
   </si>
   <si>
-    <t>DA_XU_LY</t>
-  </si>
-  <si>
     <t>Bận công việc</t>
   </si>
   <si>
     <t>Hổ trợ khách VIP</t>
+  </si>
+  <si>
+    <t>maVeCu</t>
+  </si>
+  <si>
+    <t>DA_DUYET</t>
+  </si>
+  <si>
+    <t>DA_THANH_TOAN</t>
+  </si>
+  <si>
+    <t>GD004</t>
+  </si>
+  <si>
+    <t>27/01/2026</t>
+  </si>
+  <si>
+    <t>Đổi giờ bay</t>
+  </si>
+  <si>
+    <t>TU_CHOI</t>
   </si>
 </sst>
 </file>
@@ -11917,10 +11935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -11932,17 +11950,17 @@
     <col min="5" max="5" width="15.3984375" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.3984375" style="7" customWidth="1"/>
     <col min="7" max="7" width="17.3984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.19921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1295</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1185</v>
+        <v>1310</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1296</v>
@@ -11963,7 +11981,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1301</v>
       </c>
@@ -11986,10 +12004,10 @@
         <v>1307</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1302</v>
       </c>
@@ -12002,18 +12020,17 @@
       <c r="D3" s="8" t="s">
         <v>1304</v>
       </c>
-      <c r="E3" s="3"/>
       <c r="F3" s="7">
         <v>200000</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1303</v>
       </c>
@@ -12033,10 +12050,36 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>1308</v>
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E5" s="3">
+        <v>46024</v>
+      </c>
+      <c r="F5" s="7">
+        <v>150000</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1316</v>
       </c>
     </row>
   </sheetData>
